--- a/tests/semantic_clusters_stats_1607.xlsx
+++ b/tests/semantic_clusters_stats_1607.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="64">
   <si>
     <t>question</t>
   </si>
@@ -140,7 +140,7 @@
     <t>терпение</t>
   </si>
   <si>
-    <t>интересный задача</t>
+    <t>интересные задал</t>
   </si>
   <si>
     <t>перспектива</t>
@@ -149,7 +149,7 @@
     <t>саморазвития</t>
   </si>
   <si>
-    <t>наступающим ю ю ю</t>
+    <t>ас наступающим е е е</t>
   </si>
   <si>
     <t>ругаться</t>
@@ -161,9 +161,6 @@
     <t>positive</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>повышение зарплаты</t>
   </si>
   <si>
@@ -176,7 +173,7 @@
     <t>профессиональное роста</t>
   </si>
   <si>
-    <t>удачи ю балет</t>
+    <t>удачи е одеть</t>
   </si>
   <si>
     <t>спокойствие</t>
@@ -188,19 +185,19 @@
     <t>развитие терпение</t>
   </si>
   <si>
-    <t>чаще обмениваться опыта</t>
+    <t>чаще обмениваться</t>
   </si>
   <si>
     <t>хорошего настроение</t>
   </si>
   <si>
-    <t>терпение сна менее ю ю ю ю</t>
+    <t>терпение сна менее е е че е</t>
   </si>
   <si>
     <t>увольнятся</t>
   </si>
   <si>
-    <t>достойно зарплаты</t>
+    <t>достойное зарплаты</t>
   </si>
   <si>
     <t>разбираться</t>
@@ -671,7 +668,7 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -697,7 +694,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -853,7 +850,7 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -879,7 +876,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -977,13 +974,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1009,7 +1006,7 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1237,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -1269,7 +1266,7 @@
         <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1321,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1422,10 +1419,10 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1448,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
         <v>44</v>
@@ -1477,7 +1474,7 @@
         <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1503,7 +1500,7 @@
         <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1555,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1581,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1711,7 +1708,7 @@
         <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1737,7 +1734,7 @@
         <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1877,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1885,10 +1882,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1921,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1976,7 +1973,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1984,7 +1981,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1995,10 +1992,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2006,10 +2003,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2017,9 +2014,20 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
